--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1957,7 +1957,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2230,7 +2230,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2746,7 +2746,7 @@
   <dimension ref="A1:AX42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="D14" s="44">
         <f>SUM(D15:D21)</f>
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="50"/>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="D15" s="88">
         <f>SUM(I15:AQ15)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="85">
         <v>1</v>
@@ -3642,7 +3642,9 @@
       <c r="R15" s="14"/>
       <c r="S15" s="72"/>
       <c r="T15" s="72"/>
-      <c r="U15" s="12"/>
+      <c r="U15" s="12">
+        <v>3</v>
+      </c>
       <c r="V15" s="73"/>
       <c r="W15" s="73"/>
       <c r="X15" s="71"/>
@@ -3734,7 +3736,7 @@
       </c>
       <c r="D17" s="88">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="E17" s="85">
         <v>1</v>
@@ -3756,8 +3758,10 @@
       </c>
       <c r="S17" s="72"/>
       <c r="T17" s="72"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="13"/>
+      <c r="U17" s="73">
+        <v>3.5</v>
+      </c>
+      <c r="V17" s="73"/>
       <c r="W17" s="14"/>
       <c r="X17" s="71"/>
       <c r="Y17" s="71"/>
@@ -5123,7 +5127,7 @@
       </c>
       <c r="D42" s="57">
         <f>SUM(D39+D37+D33+D14+D10+D5)</f>
-        <v>30.5</v>
+        <v>37</v>
       </c>
       <c r="E42" s="57"/>
       <c r="F42" s="57"/>
@@ -5179,7 +5183,7 @@
       </c>
       <c r="U42" s="61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="V42" s="57">
         <f t="shared" si="4"/>
@@ -5479,7 +5483,7 @@
       </c>
       <c r="B16" s="66">
         <f>Zeitplanung!U42</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5705,7 +5709,7 @@
       </c>
       <c r="D39" s="66">
         <f>Zeitplanung!D14</f>
-        <v>1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -2156,7 +2156,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -2746,7 +2746,7 @@
   <dimension ref="A1:AX42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+      <selection activeCell="AS28" sqref="AS28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C14" s="43">
         <f>SUM(C15:C32)</f>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D14" s="44">
         <f>SUM(D15:D21)</f>
@@ -3618,7 +3618,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="88">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D15" s="88">
         <f>SUM(I15:AQ15)</f>
@@ -3659,7 +3659,7 @@
       <c r="AG15" s="90"/>
       <c r="AH15" s="97"/>
       <c r="AI15" s="98"/>
-      <c r="AJ15" s="13"/>
+      <c r="AJ15" s="73"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="105"/>
       <c r="AM15" s="97"/>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="C42" s="57">
         <f>SUM(C5+C10+C14+C33+C37+C39)</f>
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D42" s="57">
         <f>SUM(D39+D37+D33+D14+D10+D5)</f>
@@ -5705,7 +5705,7 @@
       <c r="B39" s="111"/>
       <c r="C39" s="66">
         <f>Zeitplanung!C14</f>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D39" s="66">
         <f>Zeitplanung!D14</f>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p17512\Desktop\Basislehrjahr\5,6 Wochen-Projekt\SuperBomberguin\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Bomberguin\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1960,7 +1960,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2230,7 +2230,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2746,7 +2746,7 @@
   <dimension ref="A1:AX42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AS28" sqref="AS28"/>
+      <selection activeCell="AF24" sqref="AF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="D14" s="44">
         <f>SUM(D15:D21)</f>
-        <v>7.5</v>
+        <v>14</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="50"/>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="D15" s="88">
         <f>SUM(I15:AQ15)</f>
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="E15" s="85">
         <v>1</v>
@@ -3645,7 +3645,9 @@
       <c r="U15" s="12">
         <v>3</v>
       </c>
-      <c r="V15" s="73"/>
+      <c r="V15" s="73">
+        <v>6.5</v>
+      </c>
       <c r="W15" s="73"/>
       <c r="X15" s="71"/>
       <c r="Y15" s="73"/>
@@ -5127,7 +5129,7 @@
       </c>
       <c r="D42" s="57">
         <f>SUM(D39+D37+D33+D14+D10+D5)</f>
-        <v>37</v>
+        <v>43.5</v>
       </c>
       <c r="E42" s="57"/>
       <c r="F42" s="57"/>
@@ -5187,7 +5189,7 @@
       </c>
       <c r="V42" s="57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W42" s="61">
         <f t="shared" si="4"/>
@@ -5493,7 +5495,7 @@
       </c>
       <c r="B17" s="66">
         <f>Zeitplanung!V42</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5709,7 +5711,7 @@
       </c>
       <c r="D39" s="66">
         <f>Zeitplanung!D14</f>
-        <v>7.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13548" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10308" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1963,10 +1963,10 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -2156,7 +2156,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -2224,13 +2224,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2745,8 +2745,8 @@
   </sheetPr>
   <dimension ref="A1:AX42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AF24" sqref="AF24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="D5" s="44">
         <f>SUM(D6:D9)</f>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="50"/>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="D8" s="88">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E8" s="86">
         <v>1</v>
@@ -3245,7 +3245,9 @@
       <c r="U8" s="12"/>
       <c r="V8" s="16"/>
       <c r="W8" s="73"/>
-      <c r="X8" s="71"/>
+      <c r="X8" s="71">
+        <v>1</v>
+      </c>
       <c r="Y8" s="71"/>
       <c r="Z8" s="71"/>
       <c r="AA8" s="71"/>
@@ -3564,11 +3566,11 @@
       </c>
       <c r="C14" s="43">
         <f>SUM(C15:C32)</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D14" s="44">
         <f>SUM(D15:D21)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="50"/>
@@ -3618,11 +3620,11 @@
         <v>33</v>
       </c>
       <c r="C15" s="88">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D15" s="88">
         <f>SUM(I15:AQ15)</f>
-        <v>9.5</v>
+        <v>15.5</v>
       </c>
       <c r="E15" s="85">
         <v>1</v>
@@ -3648,20 +3650,22 @@
       <c r="V15" s="73">
         <v>6.5</v>
       </c>
-      <c r="W15" s="73"/>
+      <c r="W15" s="73">
+        <v>6</v>
+      </c>
       <c r="X15" s="71"/>
       <c r="Y15" s="73"/>
       <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
+      <c r="AA15" s="73"/>
       <c r="AB15" s="90"/>
       <c r="AC15" s="92"/>
-      <c r="AD15" s="71"/>
+      <c r="AD15" s="73"/>
       <c r="AE15" s="71"/>
       <c r="AF15" s="71"/>
       <c r="AG15" s="90"/>
       <c r="AH15" s="97"/>
       <c r="AI15" s="98"/>
-      <c r="AJ15" s="73"/>
+      <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="105"/>
       <c r="AM15" s="97"/>
@@ -3708,17 +3712,17 @@
       <c r="X16" s="71"/>
       <c r="Y16" s="71"/>
       <c r="Z16" s="71"/>
-      <c r="AA16" s="73"/>
+      <c r="AA16" s="90"/>
       <c r="AB16" s="90"/>
       <c r="AC16" s="92"/>
-      <c r="AD16" s="73"/>
+      <c r="AD16" s="90"/>
       <c r="AE16" s="71"/>
       <c r="AF16" s="71"/>
       <c r="AG16" s="90"/>
       <c r="AH16" s="97"/>
       <c r="AI16" s="98"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="20"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="73"/>
       <c r="AL16" s="105"/>
       <c r="AM16" s="97"/>
       <c r="AN16" s="98"/>
@@ -5125,11 +5129,11 @@
       </c>
       <c r="C42" s="57">
         <f>SUM(C5+C10+C14+C33+C37+C39)</f>
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D42" s="57">
         <f>SUM(D39+D37+D33+D14+D10+D5)</f>
-        <v>43.5</v>
+        <v>50.5</v>
       </c>
       <c r="E42" s="57"/>
       <c r="F42" s="57"/>
@@ -5193,11 +5197,11 @@
       </c>
       <c r="W42" s="61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X42" s="61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="57">
         <f t="shared" si="4"/>
@@ -5505,7 +5509,7 @@
       </c>
       <c r="B18" s="66">
         <f>Zeitplanung!W42</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5515,7 +5519,7 @@
       </c>
       <c r="B19" s="66">
         <f>Zeitplanung!X42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5683,7 +5687,7 @@
       </c>
       <c r="D37" s="66">
         <f>Zeitplanung!D5</f>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5707,11 +5711,11 @@
       <c r="B39" s="111"/>
       <c r="C39" s="66">
         <f>Zeitplanung!C14</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D39" s="66">
         <f>Zeitplanung!D14</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -1984,13 +1984,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -2002,7 +2002,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -2230,7 +2230,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2746,7 +2746,7 @@
   <dimension ref="A1:AX42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+      <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="D14" s="44">
         <f>SUM(D15:D21)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="50"/>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="D15" s="88">
         <f>SUM(I15:AQ15)</f>
-        <v>15.5</v>
+        <v>25.5</v>
       </c>
       <c r="E15" s="85">
         <v>1</v>
@@ -3659,14 +3659,20 @@
       <c r="AA15" s="73"/>
       <c r="AB15" s="90"/>
       <c r="AC15" s="92"/>
-      <c r="AD15" s="73"/>
+      <c r="AD15" s="73">
+        <v>2</v>
+      </c>
       <c r="AE15" s="71"/>
-      <c r="AF15" s="71"/>
+      <c r="AF15" s="71">
+        <v>1</v>
+      </c>
       <c r="AG15" s="90"/>
       <c r="AH15" s="97"/>
       <c r="AI15" s="98"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="20"/>
+      <c r="AJ15" s="73">
+        <v>7</v>
+      </c>
+      <c r="AK15" s="73"/>
       <c r="AL15" s="105"/>
       <c r="AM15" s="97"/>
       <c r="AN15" s="98"/>
@@ -5133,7 +5139,7 @@
       </c>
       <c r="D42" s="57">
         <f>SUM(D39+D37+D33+D14+D10+D5)</f>
-        <v>50.5</v>
+        <v>60.5</v>
       </c>
       <c r="E42" s="57"/>
       <c r="F42" s="57"/>
@@ -5225,7 +5231,7 @@
       </c>
       <c r="AD42" s="57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE42" s="61">
         <f t="shared" si="4"/>
@@ -5233,7 +5239,7 @@
       </c>
       <c r="AF42" s="57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42" s="61">
         <f t="shared" si="4"/>
@@ -5249,7 +5255,7 @@
       </c>
       <c r="AJ42" s="61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK42" s="57">
         <f t="shared" si="4"/>
@@ -5579,7 +5585,7 @@
       </c>
       <c r="B25" s="66">
         <f>Zeitplanung!AD42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5599,7 +5605,7 @@
       </c>
       <c r="B27" s="66">
         <f>Zeitplanung!AF42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5639,7 +5645,7 @@
       </c>
       <c r="B31" s="66">
         <f>Zeitplanung!AJ42</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5715,7 +5721,7 @@
       </c>
       <c r="D39" s="66">
         <f>Zeitplanung!D14</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -2005,10 +2005,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2156,7 +2156,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -2224,13 +2224,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2745,8 +2745,8 @@
   </sheetPr>
   <dimension ref="A1:AX42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="D5" s="44">
         <f>SUM(D6:D9)</f>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="50"/>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="D8" s="88">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E8" s="86">
         <v>1</v>
@@ -3261,7 +3261,9 @@
       <c r="AI8" s="98"/>
       <c r="AJ8" s="16"/>
       <c r="AK8" s="11"/>
-      <c r="AL8" s="103"/>
+      <c r="AL8" s="103">
+        <v>1</v>
+      </c>
       <c r="AM8" s="97"/>
       <c r="AN8" s="98"/>
       <c r="AO8" s="16"/>
@@ -3337,7 +3339,7 @@
       </c>
       <c r="D10" s="43">
         <f>SUM(D11:D13)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="50"/>
@@ -3453,7 +3455,7 @@
       </c>
       <c r="D12" s="88">
         <f t="shared" ref="D12:D13" si="1">SUM(I12:AQ12)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" s="85">
         <v>1</v>
@@ -3493,7 +3495,9 @@
       <c r="AH12" s="97"/>
       <c r="AI12" s="98"/>
       <c r="AJ12" s="13"/>
-      <c r="AK12" s="20"/>
+      <c r="AK12" s="20">
+        <v>3</v>
+      </c>
       <c r="AL12" s="105"/>
       <c r="AM12" s="97"/>
       <c r="AN12" s="98"/>
@@ -3566,11 +3570,11 @@
       </c>
       <c r="C14" s="43">
         <f>SUM(C15:C32)</f>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D14" s="44">
         <f>SUM(D15:D21)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="50"/>
@@ -3620,11 +3624,11 @@
         <v>33</v>
       </c>
       <c r="C15" s="88">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D15" s="88">
         <f>SUM(I15:AQ15)</f>
-        <v>25.5</v>
+        <v>35.5</v>
       </c>
       <c r="E15" s="85">
         <v>1</v>
@@ -3672,13 +3676,17 @@
       <c r="AJ15" s="73">
         <v>7</v>
       </c>
-      <c r="AK15" s="73"/>
-      <c r="AL15" s="105"/>
+      <c r="AK15" s="73">
+        <v>4</v>
+      </c>
+      <c r="AL15" s="105">
+        <v>6</v>
+      </c>
       <c r="AM15" s="97"/>
       <c r="AN15" s="98"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="33"/>
+      <c r="AO15" s="73"/>
+      <c r="AP15" s="73"/>
+      <c r="AQ15" s="73"/>
     </row>
     <row r="16" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
@@ -3793,7 +3801,7 @@
       <c r="AM17" s="97"/>
       <c r="AN17" s="98"/>
       <c r="AO17" s="13"/>
-      <c r="AP17" s="20"/>
+      <c r="AP17" s="73"/>
       <c r="AQ17" s="33"/>
       <c r="AX17" s="5" t="s">
         <v>60</v>
@@ -3806,15 +3814,13 @@
       <c r="B18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="88">
-        <v>6</v>
-      </c>
+      <c r="C18" s="88"/>
       <c r="D18" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="79"/>
@@ -3846,7 +3852,7 @@
       <c r="AG18" s="90"/>
       <c r="AH18" s="97"/>
       <c r="AI18" s="98"/>
-      <c r="AJ18" s="73"/>
+      <c r="AJ18" s="11"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="105"/>
       <c r="AM18" s="97"/>
@@ -3862,15 +3868,13 @@
       <c r="B19" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="88">
-        <v>4</v>
-      </c>
+      <c r="C19" s="88"/>
       <c r="D19" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E19" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="79"/>
@@ -3903,7 +3907,7 @@
       <c r="AH19" s="97"/>
       <c r="AI19" s="98"/>
       <c r="AJ19" s="13"/>
-      <c r="AK19" s="73"/>
+      <c r="AK19" s="11"/>
       <c r="AL19" s="105"/>
       <c r="AM19" s="97"/>
       <c r="AN19" s="98"/>
@@ -3918,15 +3922,13 @@
       <c r="B20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="88">
-        <v>8</v>
-      </c>
+      <c r="C20" s="88"/>
       <c r="D20" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E20" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="79"/>
@@ -3960,10 +3962,10 @@
       <c r="AI20" s="98"/>
       <c r="AJ20" s="13"/>
       <c r="AK20" s="20"/>
-      <c r="AL20" s="103"/>
+      <c r="AL20" s="11"/>
       <c r="AM20" s="97"/>
       <c r="AN20" s="98"/>
-      <c r="AO20" s="73"/>
+      <c r="AO20" s="11"/>
       <c r="AP20" s="20"/>
       <c r="AQ20" s="33"/>
     </row>
@@ -3974,9 +3976,7 @@
       <c r="B21" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="88">
-        <v>4</v>
-      </c>
+      <c r="C21" s="88"/>
       <c r="D21" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4015,7 +4015,7 @@
       <c r="AH21" s="97"/>
       <c r="AI21" s="98"/>
       <c r="AJ21" s="16"/>
-      <c r="AK21" s="73"/>
+      <c r="AK21" s="11"/>
       <c r="AL21" s="104"/>
       <c r="AM21" s="97"/>
       <c r="AN21" s="98"/>
@@ -4030,9 +4030,7 @@
       <c r="B22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="88">
-        <v>8</v>
-      </c>
+      <c r="C22" s="88"/>
       <c r="D22" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4041,9 +4039,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="21"/>
-      <c r="G22" s="79">
-        <v>43111</v>
-      </c>
+      <c r="G22" s="79"/>
       <c r="H22" s="81"/>
       <c r="I22" s="72"/>
       <c r="J22" s="72"/>
@@ -4072,7 +4068,7 @@
       <c r="AG22" s="90"/>
       <c r="AH22" s="97"/>
       <c r="AI22" s="98"/>
-      <c r="AJ22" s="73"/>
+      <c r="AJ22" s="11"/>
       <c r="AK22" s="11"/>
       <c r="AL22" s="104"/>
       <c r="AM22" s="97"/>
@@ -4088,9 +4084,7 @@
       <c r="B23" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="88">
-        <v>6</v>
-      </c>
+      <c r="C23" s="88"/>
       <c r="D23" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4130,7 +4124,7 @@
       <c r="AI23" s="98"/>
       <c r="AJ23" s="16"/>
       <c r="AK23" s="11"/>
-      <c r="AL23" s="103"/>
+      <c r="AL23" s="11"/>
       <c r="AM23" s="97"/>
       <c r="AN23" s="98"/>
       <c r="AO23" s="16"/>
@@ -4148,9 +4142,7 @@
       <c r="B24" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="88">
-        <v>4</v>
-      </c>
+      <c r="C24" s="88"/>
       <c r="D24" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4193,7 +4185,7 @@
       <c r="AL24" s="104"/>
       <c r="AM24" s="97"/>
       <c r="AN24" s="98"/>
-      <c r="AO24" s="73"/>
+      <c r="AO24" s="11"/>
       <c r="AP24" s="11"/>
       <c r="AQ24" s="31"/>
     </row>
@@ -4210,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="79"/>
@@ -4518,7 +4510,7 @@
       <c r="AM30" s="97"/>
       <c r="AN30" s="98"/>
       <c r="AO30" s="16"/>
-      <c r="AP30" s="73"/>
+      <c r="AP30" s="11"/>
       <c r="AQ30" s="31"/>
     </row>
     <row r="31" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5135,11 +5127,11 @@
       </c>
       <c r="C42" s="57">
         <f>SUM(C5+C10+C14+C33+C37+C39)</f>
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D42" s="57">
         <f>SUM(D39+D37+D33+D14+D10+D5)</f>
-        <v>60.5</v>
+        <v>74.5</v>
       </c>
       <c r="E42" s="57"/>
       <c r="F42" s="57"/>
@@ -5259,11 +5251,11 @@
       </c>
       <c r="AK42" s="57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL42" s="62">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM42" s="61">
         <f t="shared" si="4"/>
@@ -5655,7 +5647,7 @@
       </c>
       <c r="B32" s="66">
         <f>Zeitplanung!AK42</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5665,7 +5657,7 @@
       </c>
       <c r="B33" s="66">
         <f>Zeitplanung!AL42</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -5693,7 +5685,7 @@
       </c>
       <c r="D37" s="66">
         <f>Zeitplanung!D5</f>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5707,7 +5699,7 @@
       </c>
       <c r="D38" s="66">
         <f>Zeitplanung!D10</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5717,11 +5709,11 @@
       <c r="B39" s="111"/>
       <c r="C39" s="66">
         <f>Zeitplanung!C14</f>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D39" s="66">
         <f>Zeitplanung!D14</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -2230,7 +2230,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>46.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2745,8 +2745,8 @@
   </sheetPr>
   <dimension ref="A1:AX42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="D14" s="44">
         <f>SUM(D15:D21)</f>
-        <v>40</v>
+        <v>46.5</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="50"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="D15" s="88">
         <f>SUM(I15:AQ15)</f>
-        <v>35.5</v>
+        <v>42</v>
       </c>
       <c r="E15" s="85">
         <v>1</v>
@@ -3684,7 +3684,9 @@
       </c>
       <c r="AM15" s="97"/>
       <c r="AN15" s="98"/>
-      <c r="AO15" s="73"/>
+      <c r="AO15" s="73">
+        <v>6.5</v>
+      </c>
       <c r="AP15" s="73"/>
       <c r="AQ15" s="73"/>
     </row>
@@ -5131,7 +5133,7 @@
       </c>
       <c r="D42" s="57">
         <f>SUM(D39+D37+D33+D14+D10+D5)</f>
-        <v>74.5</v>
+        <v>81</v>
       </c>
       <c r="E42" s="57"/>
       <c r="F42" s="57"/>
@@ -5267,7 +5269,7 @@
       </c>
       <c r="AO42" s="61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AP42" s="57">
         <f t="shared" si="4"/>
@@ -5713,7 +5715,7 @@
       </c>
       <c r="D39" s="66">
         <f>Zeitplanung!D14</f>
-        <v>40</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -2008,7 +2008,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2224,22 +2224,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.5</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2745,8 +2745,8 @@
   </sheetPr>
   <dimension ref="A1:AX42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AU5" sqref="AU5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AS38" sqref="AS38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="D5" s="44">
         <f>SUM(D6:D9)</f>
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="50"/>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="D8" s="88">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="E8" s="86">
         <v>1</v>
@@ -3262,13 +3262,15 @@
       <c r="AJ8" s="16"/>
       <c r="AK8" s="11"/>
       <c r="AL8" s="103">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AM8" s="97"/>
       <c r="AN8" s="98"/>
       <c r="AO8" s="16"/>
       <c r="AP8" s="11"/>
-      <c r="AQ8" s="73"/>
+      <c r="AQ8" s="73">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="9" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
@@ -3574,7 +3576,7 @@
       </c>
       <c r="D14" s="44">
         <f>SUM(D15:D21)</f>
-        <v>46.5</v>
+        <v>49.5</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="50"/>
@@ -3628,7 +3630,7 @@
       </c>
       <c r="D15" s="88">
         <f>SUM(I15:AQ15)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E15" s="85">
         <v>1</v>
@@ -3680,14 +3682,16 @@
         <v>4</v>
       </c>
       <c r="AL15" s="105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM15" s="97"/>
       <c r="AN15" s="98"/>
       <c r="AO15" s="73">
         <v>6.5</v>
       </c>
-      <c r="AP15" s="73"/>
+      <c r="AP15" s="73">
+        <v>4</v>
+      </c>
       <c r="AQ15" s="73"/>
     </row>
     <row r="16" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4089,7 +4093,7 @@
       <c r="C23" s="88"/>
       <c r="D23" s="88">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23" s="86">
         <v>2</v>
@@ -4130,7 +4134,9 @@
       <c r="AM23" s="97"/>
       <c r="AN23" s="98"/>
       <c r="AO23" s="16"/>
-      <c r="AP23" s="11"/>
+      <c r="AP23" s="11">
+        <v>4</v>
+      </c>
       <c r="AQ23" s="31"/>
       <c r="AS23" s="5">
         <f>12*8 + 8</f>
@@ -4636,7 +4642,7 @@
       </c>
       <c r="D33" s="44">
         <f>SUM(D34:D36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="50"/>
@@ -4802,7 +4808,7 @@
       </c>
       <c r="D36" s="88">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="87">
         <v>1</v>
@@ -4844,7 +4850,9 @@
       <c r="AN36" s="98"/>
       <c r="AO36" s="13"/>
       <c r="AP36" s="13"/>
-      <c r="AQ36" s="30"/>
+      <c r="AQ36" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
@@ -4970,7 +4978,7 @@
       </c>
       <c r="D39" s="44">
         <f>SUM(D40:D41)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39" s="45"/>
       <c r="F39" s="50"/>
@@ -5078,7 +5086,7 @@
       </c>
       <c r="D41" s="88">
         <f>SUM(I41:AQ41)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E41" s="86">
         <v>1</v>
@@ -5120,7 +5128,9 @@
       <c r="AN41" s="100"/>
       <c r="AO41" s="16"/>
       <c r="AP41" s="16"/>
-      <c r="AQ41" s="73"/>
+      <c r="AQ41" s="73">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="39"/>
@@ -5133,7 +5143,7 @@
       </c>
       <c r="D42" s="57">
         <f>SUM(D39+D37+D33+D14+D10+D5)</f>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E42" s="57"/>
       <c r="F42" s="57"/>
@@ -5257,7 +5267,7 @@
       </c>
       <c r="AL42" s="62">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM42" s="61">
         <f t="shared" si="4"/>
@@ -5273,11 +5283,11 @@
       </c>
       <c r="AP42" s="57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AQ42" s="62">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5669,7 @@
       </c>
       <c r="B33" s="66">
         <f>Zeitplanung!AL42</f>
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -5687,7 +5697,7 @@
       </c>
       <c r="D37" s="66">
         <f>Zeitplanung!D5</f>
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5715,7 +5725,7 @@
       </c>
       <c r="D39" s="66">
         <f>Zeitplanung!D14</f>
-        <v>46.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5729,7 +5739,7 @@
       </c>
       <c r="D40" s="66">
         <f>Zeitplanung!D33</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5757,7 +5767,7 @@
       </c>
       <c r="D42" s="66">
         <f>Zeitplanung!D39</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
